--- a/data/Subset 1/HILLARY LEWIS-WOLFSON pt 8.xlsx
+++ b/data/Subset 1/HILLARY LEWIS-WOLFSON pt 8.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>STUDENT A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>STUDENT B</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -954,7 +954,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
